--- a/Charts/dados_fixo_D.xlsx
+++ b/Charts/dados_fixo_D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parallelComputing1920\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F6EA41-E60C-41A7-A605-BF6E850EFB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622102BD-36F1-4B24-BF74-61C179417E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Paralelo com single, default(shared), taskwait(tudo o que foi usado para paralelizar)</t>
   </si>
   <si>
-    <t>Paralelo com single, default(shared)</t>
-  </si>
-  <si>
     <t>Paralelo com single</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>PC Fixo - i5-7500 CPU 3.40GHz 3.41GHz</t>
+  </si>
+  <si>
+    <t>Paralelo com single, taskwait</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,6 +396,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,28 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,7 +722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -743,34 +746,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6435E-2</c:v>
+                  <c:v>2.1255E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7097E-2</c:v>
+                  <c:v>2.4115000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7536999999999999E-2</c:v>
+                  <c:v>2.5987E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2894999999999999E-2</c:v>
+                  <c:v>2.3354E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7354999999999999E-2</c:v>
+                  <c:v>2.9624999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3996E-2</c:v>
+                  <c:v>1.8841E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4683E-2</c:v>
+                  <c:v>1.9469E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8203000000000001E-2</c:v>
+                  <c:v>1.9945000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0641000000000002E-2</c:v>
+                  <c:v>1.8974000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4552999999999998E-2</c:v>
+                  <c:v>1.9231999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,34 +1382,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.2560000000000003E-3</c:v>
+                  <c:v>9.8779999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0436000000000001E-2</c:v>
+                  <c:v>8.737E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9210000000000001E-3</c:v>
+                  <c:v>8.7950000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0937000000000001E-2</c:v>
+                  <c:v>9.6360000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2801E-2</c:v>
+                  <c:v>9.5209999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1129999999999996E-3</c:v>
+                  <c:v>8.8979999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6239999999999997E-3</c:v>
+                  <c:v>7.3850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8499999999999993E-3</c:v>
+                  <c:v>8.3580000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9440000000000006E-3</c:v>
+                  <c:v>9.0869999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7899999999999992E-3</c:v>
+                  <c:v>9.7689999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +1994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2015,34 +2018,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.156E-3</c:v>
+                  <c:v>5.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7660000000000003E-3</c:v>
+                  <c:v>3.8839999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5899999999999999E-3</c:v>
+                  <c:v>3.8070000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.731E-3</c:v>
+                  <c:v>3.6579999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3319999999999999E-3</c:v>
+                  <c:v>4.8060000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0939999999999996E-3</c:v>
+                  <c:v>3.771E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9849999999999998E-3</c:v>
+                  <c:v>7.0889999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.069E-2</c:v>
+                  <c:v>5.1120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8110000000000002E-3</c:v>
+                  <c:v>4.0350000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6839999999999998E-3</c:v>
+                  <c:v>5.2630000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,7 +2630,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2651,34 +2654,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0029999999999996E-3</c:v>
+                  <c:v>1.7340000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.887E-3</c:v>
+                  <c:v>4.6709999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.737E-3</c:v>
+                  <c:v>1.9139999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6689999999999999E-3</c:v>
+                  <c:v>1.663E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7750000000000001E-3</c:v>
+                  <c:v>1.866E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6919999999999999E-3</c:v>
+                  <c:v>1.663E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>4.6829999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0349999999999999E-3</c:v>
+                  <c:v>4.2529999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0600000000000002E-3</c:v>
+                  <c:v>1.7910000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8159999999999999E-3</c:v>
+                  <c:v>1.8979999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,7 +4491,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Paralelo com single, default(shared)</a:t>
+              <a:t>Paralelo com single, taskwait</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4597,34 +4600,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6435E-2</c:v>
+                  <c:v>2.1255E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7097E-2</c:v>
+                  <c:v>2.4115000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7536999999999999E-2</c:v>
+                  <c:v>2.5987E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2894999999999999E-2</c:v>
+                  <c:v>2.3354E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7354999999999999E-2</c:v>
+                  <c:v>2.9624999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3996E-2</c:v>
+                  <c:v>1.8841E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4683E-2</c:v>
+                  <c:v>1.9469E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8203000000000001E-2</c:v>
+                  <c:v>1.9945000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0641000000000002E-2</c:v>
+                  <c:v>1.8974000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4552999999999998E-2</c:v>
+                  <c:v>1.9231999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,34 +4708,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.2560000000000003E-3</c:v>
+                  <c:v>9.8779999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0436000000000001E-2</c:v>
+                  <c:v>8.737E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9210000000000001E-3</c:v>
+                  <c:v>8.7950000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0937000000000001E-2</c:v>
+                  <c:v>9.6360000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2801E-2</c:v>
+                  <c:v>9.5209999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1129999999999996E-3</c:v>
+                  <c:v>8.8979999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6239999999999997E-3</c:v>
+                  <c:v>7.3850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8499999999999993E-3</c:v>
+                  <c:v>8.3580000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9440000000000006E-3</c:v>
+                  <c:v>9.0869999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7899999999999992E-3</c:v>
+                  <c:v>9.7689999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,34 +4816,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.156E-3</c:v>
+                  <c:v>5.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7660000000000003E-3</c:v>
+                  <c:v>3.8839999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5899999999999999E-3</c:v>
+                  <c:v>3.8070000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.731E-3</c:v>
+                  <c:v>3.6579999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3319999999999999E-3</c:v>
+                  <c:v>4.8060000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0939999999999996E-3</c:v>
+                  <c:v>3.771E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9849999999999998E-3</c:v>
+                  <c:v>7.0889999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.069E-2</c:v>
+                  <c:v>5.1120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8110000000000002E-3</c:v>
+                  <c:v>4.0350000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6839999999999998E-3</c:v>
+                  <c:v>5.2630000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,34 +4924,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0029999999999996E-3</c:v>
+                  <c:v>1.7340000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.887E-3</c:v>
+                  <c:v>4.6709999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.737E-3</c:v>
+                  <c:v>1.9139999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6689999999999999E-3</c:v>
+                  <c:v>1.663E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7750000000000001E-3</c:v>
+                  <c:v>1.866E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6919999999999999E-3</c:v>
+                  <c:v>1.663E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>4.6829999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0349999999999999E-3</c:v>
+                  <c:v>4.2529999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0600000000000002E-3</c:v>
+                  <c:v>1.7910000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8159999999999999E-3</c:v>
+                  <c:v>1.8979999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12118,8 +12121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12153,79 +12156,79 @@
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
-      <c r="D6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
+      <c r="D6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="11">
         <v>3.8085000000000001E-2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="12">
         <v>3.6821E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="12">
         <v>3.6359000000000002E-2</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="12">
         <v>3.6644000000000003E-2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="12">
         <v>3.5362999999999999E-2</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="12">
         <v>3.6736999999999999E-2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="12">
         <v>3.7239000000000001E-2</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="12">
         <v>3.5817000000000002E-2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="12">
         <v>3.6525000000000002E-2</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="12">
         <v>3.5642E-2</v>
       </c>
     </row>
@@ -12233,34 +12236,34 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="13">
         <v>1.8178E-2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="14">
         <v>1.9251999999999998E-2</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="14">
         <v>1.9805E-2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="14">
         <v>1.7219000000000002E-2</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="14">
         <v>1.7724E-2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="14">
         <v>1.7002E-2</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="14">
         <v>1.7131E-2</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="14">
         <v>1.7676999999999998E-2</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="14">
         <v>1.7142000000000001E-2</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="14">
         <v>1.7205000000000002E-2</v>
       </c>
     </row>
@@ -12268,34 +12271,34 @@
       <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="15">
         <v>8.097E-3</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="16">
         <v>6.5389999999999997E-3</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="16">
         <v>7.2960000000000004E-3</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="16">
         <v>7.0530000000000002E-3</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="16">
         <v>6.594E-3</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="16">
         <v>6.4980000000000003E-3</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="16">
         <v>8.2140000000000008E-3</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="16">
         <v>6.4609999999999997E-3</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="16">
         <v>6.5820000000000002E-3</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="16">
         <v>7.3860000000000002E-3</v>
       </c>
     </row>
@@ -12303,34 +12306,34 @@
       <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="17">
         <v>3.3630000000000001E-3</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="18">
         <v>3.2139999999999998E-3</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="18">
         <v>3.3579999999999999E-3</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="18">
         <v>3.1719999999999999E-3</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="18">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="18">
         <v>3.1909999999999998E-3</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="18">
         <v>4.3680000000000004E-3</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="18">
         <v>4.0969999999999999E-3</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="18">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="18">
         <v>3.1849999999999999E-3</v>
       </c>
     </row>
@@ -12362,79 +12365,79 @@
     </row>
     <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+      <c r="D15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="11">
         <v>4.6328000000000001E-2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="12">
         <v>1.8461999999999999E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="12">
         <v>1.7902000000000001E-2</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="12">
         <v>3.5095000000000001E-2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="12">
         <v>2.1402999999999998E-2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="12">
         <v>3.7539000000000003E-2</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="12">
         <v>3.6457000000000003E-2</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="12">
         <v>3.1734999999999999E-2</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="12">
         <v>1.9334E-2</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="12">
         <v>3.9545999999999998E-2</v>
       </c>
     </row>
@@ -12442,34 +12445,34 @@
       <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="13">
         <v>1.7944999999999999E-2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="14">
         <v>7.9059999999999998E-3</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="14">
         <v>9.4210000000000006E-3</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="14">
         <v>1.0300999999999999E-2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="14">
         <v>8.9949999999999995E-3</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="14">
         <v>9.9539999999999993E-3</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="14">
         <v>9.9909999999999999E-3</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="14">
         <v>1.0374E-2</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="14">
         <v>7.2129999999999998E-3</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="14">
         <v>8.3180000000000007E-3</v>
       </c>
     </row>
@@ -12477,34 +12480,34 @@
       <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="15">
         <v>4.1739999999999998E-3</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="16">
         <v>4.1660000000000004E-3</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="16">
         <v>3.6819999999999999E-3</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="16">
         <v>3.7820000000000002E-3</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="16">
         <v>4.4229999999999998E-3</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="16">
         <v>3.7079999999999999E-3</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="16">
         <v>3.6719999999999999E-3</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="16">
         <v>3.6389999999999999E-3</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="16">
         <v>5.1789999999999996E-3</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="16">
         <v>3.8600000000000001E-3</v>
       </c>
     </row>
@@ -12512,34 +12515,34 @@
       <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="17">
         <v>1.6540000000000001E-3</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="18">
         <v>6.5409999999999999E-3</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="18">
         <v>1.712E-3</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="18">
         <v>3.7260000000000001E-3</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="18">
         <v>2.9369999999999999E-3</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="18">
         <v>4.1650000000000003E-3</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="18">
         <v>7.6759999999999997E-3</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="18">
         <v>2.127E-3</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="18">
         <v>1.6570000000000001E-3</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="18">
         <v>1.6819999999999999E-3</v>
       </c>
     </row>
@@ -12571,185 +12574,185 @@
     </row>
     <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
-      <c r="D24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
+      <c r="D24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
-      <c r="D26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="D26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="29">
-        <v>2.6435E-2</v>
-      </c>
-      <c r="E27" s="30">
-        <v>2.7097E-2</v>
-      </c>
-      <c r="F27" s="30">
-        <v>2.7536999999999999E-2</v>
-      </c>
-      <c r="G27" s="30">
-        <v>2.2894999999999999E-2</v>
-      </c>
-      <c r="H27" s="30">
-        <v>3.7354999999999999E-2</v>
-      </c>
-      <c r="I27" s="30">
-        <v>2.3996E-2</v>
-      </c>
-      <c r="J27" s="30">
-        <v>2.4683E-2</v>
-      </c>
-      <c r="K27" s="30">
-        <v>3.8203000000000001E-2</v>
-      </c>
-      <c r="L27" s="30">
-        <v>3.0641000000000002E-2</v>
-      </c>
-      <c r="M27" s="30">
-        <v>2.4552999999999998E-2</v>
+      <c r="D27" s="37">
+        <v>2.1255E-2</v>
+      </c>
+      <c r="E27" s="37">
+        <v>2.4115000000000001E-2</v>
+      </c>
+      <c r="F27" s="37">
+        <v>2.5987E-2</v>
+      </c>
+      <c r="G27" s="37">
+        <v>2.3354E-2</v>
+      </c>
+      <c r="H27" s="37">
+        <v>2.9624999999999999E-2</v>
+      </c>
+      <c r="I27" s="37">
+        <v>1.8841E-2</v>
+      </c>
+      <c r="J27" s="37">
+        <v>1.9469E-2</v>
+      </c>
+      <c r="K27" s="37">
+        <v>1.9945000000000001E-2</v>
+      </c>
+      <c r="L27" s="37">
+        <v>1.8974000000000001E-2</v>
+      </c>
+      <c r="M27" s="37">
+        <v>1.9231999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="31">
-        <v>9.2560000000000003E-3</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1.0436000000000001E-2</v>
-      </c>
-      <c r="F28" s="32">
-        <v>8.9210000000000001E-3</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1.0937000000000001E-2</v>
-      </c>
-      <c r="H28" s="32">
-        <v>1.2801E-2</v>
-      </c>
-      <c r="I28" s="32">
-        <v>9.1129999999999996E-3</v>
-      </c>
-      <c r="J28" s="32">
-        <v>7.6239999999999997E-3</v>
-      </c>
-      <c r="K28" s="32">
-        <v>7.8499999999999993E-3</v>
-      </c>
-      <c r="L28" s="32">
-        <v>8.9440000000000006E-3</v>
-      </c>
-      <c r="M28" s="32">
-        <v>8.7899999999999992E-3</v>
+      <c r="D28" s="14">
+        <v>9.8779999999999996E-3</v>
+      </c>
+      <c r="E28" s="14">
+        <v>8.737E-3</v>
+      </c>
+      <c r="F28" s="14">
+        <v>8.7950000000000007E-3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>9.6360000000000005E-3</v>
+      </c>
+      <c r="H28" s="14">
+        <v>9.5209999999999999E-3</v>
+      </c>
+      <c r="I28" s="14">
+        <v>8.8979999999999997E-3</v>
+      </c>
+      <c r="J28" s="14">
+        <v>7.3850000000000001E-3</v>
+      </c>
+      <c r="K28" s="14">
+        <v>8.3580000000000008E-3</v>
+      </c>
+      <c r="L28" s="14">
+        <v>9.0869999999999996E-3</v>
+      </c>
+      <c r="M28" s="14">
+        <v>9.7689999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="33">
-        <v>4.156E-3</v>
-      </c>
-      <c r="E29" s="34">
-        <v>4.7660000000000003E-3</v>
-      </c>
-      <c r="F29" s="34">
-        <v>3.5899999999999999E-3</v>
-      </c>
-      <c r="G29" s="34">
-        <v>4.731E-3</v>
-      </c>
-      <c r="H29" s="34">
-        <v>5.3319999999999999E-3</v>
-      </c>
-      <c r="I29" s="34">
-        <v>5.0939999999999996E-3</v>
-      </c>
-      <c r="J29" s="34">
-        <v>3.9849999999999998E-3</v>
-      </c>
-      <c r="K29" s="34">
-        <v>1.069E-2</v>
-      </c>
-      <c r="L29" s="34">
-        <v>3.8110000000000002E-3</v>
-      </c>
-      <c r="M29" s="34">
-        <v>4.6839999999999998E-3</v>
+      <c r="D29" s="16">
+        <v>5.8560000000000001E-3</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.8839999999999999E-3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3.8070000000000001E-3</v>
+      </c>
+      <c r="G29" s="16">
+        <v>3.6579999999999998E-3</v>
+      </c>
+      <c r="H29" s="16">
+        <v>4.8060000000000004E-3</v>
+      </c>
+      <c r="I29" s="16">
+        <v>3.771E-3</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7.0889999999999998E-3</v>
+      </c>
+      <c r="K29" s="16">
+        <v>5.1120000000000002E-3</v>
+      </c>
+      <c r="L29" s="16">
+        <v>4.0350000000000004E-3</v>
+      </c>
+      <c r="M29" s="16">
+        <v>5.2630000000000003E-3</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="35">
-        <v>4.0029999999999996E-3</v>
-      </c>
-      <c r="E30" s="36">
-        <v>1.887E-3</v>
-      </c>
-      <c r="F30" s="36">
-        <v>1.737E-3</v>
-      </c>
-      <c r="G30" s="36">
-        <v>1.6689999999999999E-3</v>
-      </c>
-      <c r="H30" s="36">
-        <v>2.7750000000000001E-3</v>
-      </c>
-      <c r="I30" s="36">
-        <v>1.6919999999999999E-3</v>
-      </c>
-      <c r="J30" s="36">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="K30" s="36">
-        <v>2.0349999999999999E-3</v>
-      </c>
-      <c r="L30" s="36">
-        <v>4.0600000000000002E-3</v>
-      </c>
-      <c r="M30" s="36">
-        <v>2.8159999999999999E-3</v>
+      <c r="D30" s="18">
+        <v>1.7340000000000001E-3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>4.6709999999999998E-3</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1.9139999999999999E-3</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1.663E-3</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1.866E-3</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1.663E-3</v>
+      </c>
+      <c r="J30" s="18">
+        <v>4.6829999999999997E-3</v>
+      </c>
+      <c r="K30" s="18">
+        <v>4.2529999999999998E-3</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1.7910000000000001E-3</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1.8979999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12780,79 +12783,79 @@
     </row>
     <row r="33" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
-      <c r="D33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
+      <c r="D33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
-      <c r="D35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
+      <c r="D35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="11">
         <v>3.023E-2</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="12">
         <v>2.4743000000000001E-2</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="12">
         <v>2.9350999999999999E-2</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="12">
         <v>5.3837999999999997E-2</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="12">
         <v>4.3038E-2</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="12">
         <v>2.8171999999999999E-2</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="12">
         <v>3.5652999999999997E-2</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="12">
         <v>2.6246999999999999E-2</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="12">
         <v>2.8743999999999999E-2</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="12">
         <v>2.2321000000000001E-2</v>
       </c>
     </row>
@@ -12860,34 +12863,34 @@
       <c r="C37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="13">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="14">
         <v>1.7287E-2</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="14">
         <v>8.038E-3</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="14">
         <v>8.7869999999999997E-3</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="14">
         <v>7.221E-3</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="14">
         <v>8.6160000000000004E-3</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="14">
         <v>7.9229999999999995E-3</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="14">
         <v>1.9619999999999999E-2</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="14">
         <v>1.0758999999999999E-2</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="14">
         <v>7.718E-3</v>
       </c>
     </row>
@@ -12895,34 +12898,34 @@
       <c r="C38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="15">
         <v>3.679E-3</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="16">
         <v>4.1029999999999999E-3</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="16">
         <v>4.8349999999999999E-3</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="16">
         <v>5.1159999999999999E-3</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="16">
         <v>3.7360000000000002E-3</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="16">
         <v>7.7590000000000003E-3</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="16">
         <v>3.8169000000000002E-2</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="16">
         <v>5.8409999999999998E-3</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="16">
         <v>4.104E-3</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="16">
         <v>8.116E-3</v>
       </c>
     </row>
@@ -12930,34 +12933,34 @@
       <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="17">
         <v>1.7060000000000001E-3</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="18">
         <v>1.939E-3</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="18">
         <v>1.691E-3</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="18">
         <v>5.4869999999999997E-3</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="18">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="18">
         <v>2.7647000000000001E-2</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="18">
         <v>2.954E-3</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="18">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="18">
         <v>8.4880000000000008E-3</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="18">
         <v>6.8019999999999999E-3</v>
       </c>
     </row>
@@ -12989,79 +12992,79 @@
     </row>
     <row r="42" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
-      <c r="D42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
+      <c r="D42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
     </row>
     <row r="44" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
-      <c r="D44" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
+      <c r="D44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="11">
         <v>2.3869000000000001E-2</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="12">
         <v>8.9927000000000007E-2</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="12">
         <v>1.8748000000000001E-2</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="12">
         <v>1.7805999999999999E-2</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="12">
         <v>3.1352999999999999E-2</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="12">
         <v>2.1239000000000001E-2</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="12">
         <v>3.0407E-2</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="12">
         <v>2.0677000000000001E-2</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="12">
         <v>3.7524000000000002E-2</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="12">
         <v>2.1992000000000001E-2</v>
       </c>
     </row>
@@ -13069,34 +13072,34 @@
       <c r="C46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="13">
         <v>1.2971999999999999E-2</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="14">
         <v>9.9270000000000001E-3</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="14">
         <v>8.2349999999999993E-3</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="14">
         <v>8.4329999999999995E-3</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="14">
         <v>9.9699999999999997E-3</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="14">
         <v>8.4080000000000005E-3</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="14">
         <v>1.0971E-2</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="14">
         <v>9.8239999999999994E-3</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="14">
         <v>9.6849999999999992E-3</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="14">
         <v>2.2699E-2</v>
       </c>
     </row>
@@ -13104,34 +13107,34 @@
       <c r="C47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="15">
         <v>4.7359999999999998E-3</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="16">
         <v>1.7472999999999999E-2</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="16">
         <v>3.7060000000000001E-3</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="16">
         <v>5.5950000000000001E-3</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="16">
         <v>4.5399999999999998E-3</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="16">
         <v>3.6579999999999998E-3</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="16">
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="16">
         <v>4.9680000000000002E-3</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="16">
         <v>3.7190000000000001E-3</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="16">
         <v>4.0860000000000002E-3</v>
       </c>
     </row>
@@ -13139,34 +13142,34 @@
       <c r="C48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="17">
         <v>1.6570000000000001E-3</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="18">
         <v>3.653E-3</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="18">
         <v>1.7979999999999999E-3</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="18">
         <v>1.6750000000000001E-3</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="18">
         <v>3.408E-3</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="18">
         <v>3.2959999999999999E-3</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="18">
         <v>8.4899999999999993E-3</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="18">
         <v>1.637E-3</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="18">
         <v>3.1549999999999998E-3</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="18">
         <v>1.7060000000000001E-3</v>
       </c>
     </row>
